--- a/dataset-1/2-with_data_augmentation/results/smote.xlsx
+++ b/dataset-1/2-with_data_augmentation/results/smote.xlsx
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C4">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>0.7999999999999999</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8750000000000001</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
   </sheetData>
